--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,22 +126,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新添加的用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>处于锁定状态的用户无法登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号未生效的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不存在的用户无法登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,30 +158,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F01_accountlock_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_F01_ineffective _003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F01_checkout_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ccc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,22 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gyrlogin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gyrloginad2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +275,10 @@
   </si>
   <si>
     <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAudit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,37 +781,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>10</v>
@@ -865,251 +821,187 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>68</v>
+      <c r="D2" s="16">
+        <v>1111</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>27</v>
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="D4" s="16">
+        <v>1111</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="16">
-        <v>1111</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>74</v>
+      <c r="D6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="8" t="s">
-        <v>74</v>
+      <c r="D7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="16">
-        <v>1111</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="D8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>4</v>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>75</v>
+      <c r="D10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E11:E13" r:id="rId5" display="qawsed@123"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7"/>
-    <hyperlink ref="E13" r:id="rId8"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7:E10" r:id="rId4" display="qawsed@123"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1121,34 +1013,34 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>11</v>
@@ -1163,11 +1055,11 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -1340,38 +1232,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.25" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -1386,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -1412,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1430,13 +1322,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
@@ -1453,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>1</v>
@@ -1485,33 +1377,33 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -1525,13 +1417,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1543,17 +1435,17 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -1567,16 +1459,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -258,27 +258,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gyrloginad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gyrloginad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrloginad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qawsed@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qawsed@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysAudit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -831,7 +831,7 @@
         <v>1111</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>36</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>36</v>
@@ -903,7 +903,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -920,10 +920,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>47</v>
@@ -940,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>47</v>
@@ -960,10 +960,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>35</v>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1055,11 +1055,11 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -1233,12 +1233,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
@@ -1278,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1325,7 +1325,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>39</v>
@@ -1348,7 +1348,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>1</v>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
